--- a/xtt_demo/10-01_R.xlsx
+++ b/xtt_demo/10-01_R.xlsx
@@ -481,14 +481,19 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Object_1"/>
@@ -497,7 +502,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -513,7 +518,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -535,7 +540,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId1" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P1" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -603,7 +608,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId1" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P1" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -672,7 +677,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId1" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P1" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -705,14 +710,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Object_2"/>
@@ -721,7 +731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -737,7 +747,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -759,7 +769,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId2" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P2" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -827,7 +837,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId2" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P2" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -896,7 +906,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId2" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P2" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -929,14 +939,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Object_3"/>
@@ -945,7 +960,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -961,7 +976,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -983,7 +998,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId3" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P3" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1051,7 +1066,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId3" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P3" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1120,7 +1135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId3" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P3" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1153,14 +1168,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Object_4"/>
@@ -1169,7 +1189,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1185,7 +1205,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1207,7 +1227,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId4" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P4" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1275,7 +1295,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId4" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P4" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1344,7 +1364,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId4" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P4" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1377,14 +1397,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Object_5"/>
@@ -1393,7 +1418,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1409,7 +1434,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1431,7 +1456,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId5" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P5" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1499,7 +1524,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId5" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P5" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1568,7 +1593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId5" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P5" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1601,14 +1626,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Object_6"/>
@@ -1617,7 +1647,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1633,7 +1663,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1655,7 +1685,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId6" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P6" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1723,7 +1753,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId6" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P6" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1792,7 +1822,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId6" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P6" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1825,14 +1855,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Object_7"/>
@@ -1841,7 +1876,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1857,7 +1892,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1879,7 +1914,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId7" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P7" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1947,7 +1982,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId7" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P7" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2016,7 +2051,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId7" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P7" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2049,14 +2084,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="8" name="Object_8"/>
@@ -2065,7 +2105,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2081,7 +2121,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2103,7 +2143,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId8" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P8" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2171,7 +2211,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId8" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P8" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2240,7 +2280,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId8" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P8" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2273,14 +2313,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Object_9"/>
@@ -2289,7 +2334,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2305,7 +2350,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2327,7 +2372,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId9" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P9" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2395,7 +2440,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId9" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P9" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2464,7 +2509,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId9" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P9" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2497,14 +2542,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="10" name="Object_10"/>
@@ -2513,7 +2563,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2529,7 +2579,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2551,7 +2601,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId10" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P10" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2619,7 +2669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId10" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P10" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2688,7 +2738,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId10" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P10" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2721,14 +2771,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Object_11"/>
@@ -2737,7 +2792,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2753,7 +2808,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2775,7 +2830,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId11" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P11" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2843,7 +2898,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId11" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P11" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2912,7 +2967,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId11" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P11" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2945,14 +3000,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="12" name="Object_12"/>
@@ -2961,7 +3021,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2977,7 +3037,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2999,7 +3059,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId12" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P12" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3067,7 +3127,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId12" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P12" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3136,7 +3196,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId12" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P12" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3169,14 +3229,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="13" name="Object_13"/>
@@ -3185,7 +3250,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3201,7 +3266,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3223,7 +3288,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId13" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P13" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3291,7 +3356,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId13" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P13" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3360,7 +3425,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId13" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P13" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3393,14 +3458,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="Object_14"/>
@@ -3409,7 +3479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3425,7 +3495,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3447,7 +3517,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId14" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P14" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3515,7 +3585,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId14" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P14" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3584,7 +3654,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId14" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P14" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3617,14 +3687,19 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="200000" cy="200000"/>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="Object_15"/>
@@ -3633,7 +3708,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3649,7 +3724,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3671,7 +3746,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId15" old_id="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P15" old_id="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3739,7 +3814,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId15" old_id="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P15" old_id="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3808,7 +3883,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_rImgId15" old_id="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="_P15" old_id="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
